--- a/tang.xlsx
+++ b/tang.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\betof\Documents\ciencia dos dados\GIT\CD17\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariateresarezende/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="462">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1501,7 +1509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1562,13 +1570,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,9 +1641,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1662,31 +1671,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1714,23 +1706,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1906,19 +1881,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="137.81640625" customWidth="1"/>
+    <col min="1" max="1" width="137.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1902,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +1910,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1918,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +1926,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1934,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1942,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1950,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +1974,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2006,7 +1982,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +1990,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +1998,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2030,7 +2006,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2014,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2022,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +2030,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +2038,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2070,7 +2046,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2054,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2062,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +2070,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2102,7 +2078,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2110,7 +2086,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2094,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2126,7 +2102,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2110,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2142,7 +2118,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2126,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2134,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2142,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2174,7 +2150,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2182,7 +2158,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2190,7 +2166,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2174,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2206,7 +2182,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2190,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2198,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2230,7 +2206,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2238,7 +2214,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2246,7 +2222,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2254,7 +2230,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2238,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2270,7 +2246,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2278,7 +2254,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2286,7 +2262,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2294,7 +2270,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2302,7 +2278,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2286,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2318,7 +2294,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2326,7 +2302,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2310,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2342,7 +2318,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2350,7 +2326,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2358,7 +2334,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2366,7 +2342,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +2350,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2358,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2366,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2398,7 +2374,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2406,7 +2382,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2414,7 +2390,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2422,7 +2398,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2430,7 +2406,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2438,7 +2414,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2446,7 +2422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2454,7 +2430,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2462,7 +2438,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2470,7 +2446,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2478,7 +2454,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2486,7 +2462,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2494,7 +2470,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2478,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2510,7 +2486,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2518,7 +2494,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2526,7 +2502,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2534,7 +2510,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2518,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2550,7 +2526,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2558,7 +2534,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2566,7 +2542,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2574,7 +2550,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2582,7 +2558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2590,7 +2566,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2574,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2606,7 +2582,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2614,7 +2590,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2622,7 +2598,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2630,7 +2606,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2614,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -2646,7 +2622,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2654,7 +2630,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2662,7 +2638,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2670,7 +2646,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -2678,7 +2654,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2686,7 +2662,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -2694,7 +2670,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -2702,7 +2678,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -2710,7 +2686,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2718,7 +2694,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2726,7 +2702,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -2734,7 +2710,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -2742,7 +2718,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2750,7 +2726,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -2758,7 +2734,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -2766,7 +2742,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -2774,7 +2750,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -2782,7 +2758,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -2790,7 +2766,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -2798,7 +2774,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -2806,7 +2782,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -2814,7 +2790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -2822,7 +2798,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -2830,7 +2806,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -2838,7 +2814,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -2846,7 +2822,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -2854,7 +2830,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -2862,7 +2838,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -2870,7 +2846,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2878,7 +2854,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -2886,7 +2862,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -2894,7 +2870,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -2902,7 +2878,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -2910,7 +2886,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -2918,7 +2894,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -2926,7 +2902,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -2934,7 +2910,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -2942,7 +2918,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -2950,7 +2926,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -2958,7 +2934,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -2966,7 +2942,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -2974,7 +2950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -2982,7 +2958,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -2990,7 +2966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -2998,7 +2974,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -3006,7 +2982,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -3014,7 +2990,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3022,7 +2998,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3030,7 +3006,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -3038,7 +3014,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -3046,7 +3022,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -3054,7 +3030,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -3062,7 +3038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -3070,7 +3046,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -3078,7 +3054,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -3086,7 +3062,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -3094,7 +3070,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -3102,7 +3078,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -3110,7 +3086,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -3118,7 +3094,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -3126,7 +3102,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -3134,7 +3110,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -3142,7 +3118,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -3150,1760 +3126,2810 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B232" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B233" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B257" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B275" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B281" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B282" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B283" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B289" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B290" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B291" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B292" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B293" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B294" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B295" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B298" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B300" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>279</v>
       </c>
+      <c r="B301" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A169" r:id="rId1" location="peace%20#bond%20#oneworld%20#olaplex%20@guy_tang" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A169" r:id="rId1" location="peace%20#bond%20#oneworld%20#olaplex%20@guy_tang"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:B201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="122.5" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>457</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/tang.xlsx
+++ b/tang.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariateresarezende/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\betof\Documents\ciencia dos dados\GIT\projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="461">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1502,14 +1502,11 @@
   <si>
     <t>relevante</t>
   </si>
-  <si>
-    <t>revelante</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1881,20 +1878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="137.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="137.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1931,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1942,15 +1939,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +1995,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2011,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2022,7 +2019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2075,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2142,7 +2139,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2174,7 +2171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2182,7 +2179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2283,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2302,7 +2299,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2366,7 +2363,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2374,7 +2371,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2382,7 +2379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2446,7 +2443,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2494,7 +2491,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2534,7 +2531,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2542,7 +2539,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2550,7 +2547,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2574,7 +2571,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2598,7 +2595,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2606,7 +2603,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -2622,7 +2619,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -2670,7 +2667,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2726,7 +2723,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -2734,7 +2731,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2747,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -2766,7 +2763,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -2790,7 +2787,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -2814,7 +2811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -2870,7 +2867,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -2886,7 +2883,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -2918,7 +2915,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -2934,7 +2931,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -2958,7 +2955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -2966,7 +2963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -2974,7 +2971,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -3014,7 +3011,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -3046,7 +3043,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -3158,7 +3155,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -3166,7 +3163,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -3190,7 +3187,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -3198,7 +3195,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>159</v>
       </c>
@@ -3214,7 +3211,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>160</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>163</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3262,7 +3259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>170</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>172</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>173</v>
       </c>
@@ -3326,7 +3323,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>174</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>175</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>113</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>176</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>177</v>
       </c>
@@ -3366,7 +3363,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>180</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>181</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>182</v>
       </c>
@@ -3406,7 +3403,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -3430,7 +3427,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -3438,7 +3435,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>186</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>189</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -3494,7 +3491,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -3502,7 +3499,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>83</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -3518,7 +3515,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -3526,7 +3523,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>108</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>196</v>
       </c>
@@ -3558,7 +3555,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>197</v>
       </c>
@@ -3566,7 +3563,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>198</v>
       </c>
@@ -3574,7 +3571,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>199</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>200</v>
       </c>
@@ -3590,7 +3587,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>175</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>201</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>131</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>203</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>104</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>204</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>205</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>206</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>207</v>
       </c>
@@ -3670,7 +3667,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>208</v>
       </c>
@@ -3678,7 +3675,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -3686,7 +3683,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>210</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>211</v>
       </c>
@@ -3702,7 +3699,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>212</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>213</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>214</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>215</v>
       </c>
@@ -3734,7 +3731,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>217</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>218</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>219</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>220</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>221</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>222</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>223</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>224</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>225</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>226</v>
       </c>
@@ -3822,7 +3819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>227</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>60</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>229</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>230</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>231</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>232</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>233</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>234</v>
       </c>
@@ -3902,7 +3899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>235</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>236</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>237</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>238</v>
       </c>
@@ -3934,7 +3931,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>239</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>240</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>241</v>
       </c>
@@ -3958,7 +3955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>242</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>243</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>244</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>245</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>247</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>248</v>
       </c>
@@ -4022,7 +4019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>249</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>250</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>252</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>253</v>
       </c>
@@ -4062,7 +4059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>255</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>256</v>
       </c>
@@ -4086,7 +4083,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -4094,7 +4091,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>258</v>
       </c>
@@ -4102,7 +4099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>259</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>260</v>
       </c>
@@ -4118,7 +4115,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>261</v>
       </c>
@@ -4126,7 +4123,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>262</v>
       </c>
@@ -4134,7 +4131,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>263</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>264</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>265</v>
       </c>
@@ -4158,7 +4155,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>266</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>267</v>
       </c>
@@ -4174,7 +4171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>268</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>269</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>60</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -4206,7 +4203,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>166</v>
       </c>
@@ -4214,7 +4211,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>271</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>272</v>
       </c>
@@ -4230,7 +4227,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>273</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>274</v>
       </c>
@@ -4246,7 +4243,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>275</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>276</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>277</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>278</v>
       </c>
@@ -4294,7 +4291,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>279</v>
       </c>
@@ -4304,27 +4301,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A169" r:id="rId1" location="peace%20#bond%20#oneworld%20#olaplex%20@guy_tang"/>
+    <hyperlink ref="A169" r:id="rId1" location="peace%20#bond%20#oneworld%20#olaplex%20@guy_tang" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B201"/>
+    <sheetView topLeftCell="A190" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.5" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -4340,7 +4337,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -4348,7 +4345,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -4364,7 +4361,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -4372,7 +4369,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -4380,7 +4377,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -4388,7 +4385,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -4404,7 +4401,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>290</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -4420,7 +4417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -4436,7 +4433,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>295</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -4468,7 +4465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>297</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>298</v>
       </c>
@@ -4484,7 +4481,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -4492,7 +4489,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -4500,7 +4497,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -4508,7 +4505,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>217</v>
       </c>
@@ -4524,7 +4521,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -4532,7 +4529,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>305</v>
       </c>
@@ -4548,7 +4545,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>306</v>
       </c>
@@ -4556,7 +4553,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>307</v>
       </c>
@@ -4564,7 +4561,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>308</v>
       </c>
@@ -4580,7 +4577,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>309</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>311</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4620,7 +4617,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>312</v>
       </c>
@@ -4628,7 +4625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>313</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>315</v>
       </c>
@@ -4652,7 +4649,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -4660,7 +4657,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>317</v>
       </c>
@@ -4668,7 +4665,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>318</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>319</v>
       </c>
@@ -4684,7 +4681,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>320</v>
       </c>
@@ -4692,7 +4689,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>321</v>
       </c>
@@ -4700,7 +4697,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -4708,7 +4705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>323</v>
       </c>
@@ -4716,7 +4713,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>324</v>
       </c>
@@ -4724,7 +4721,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>325</v>
       </c>
@@ -4732,7 +4729,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>326</v>
       </c>
@@ -4740,7 +4737,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>327</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>329</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>330</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>331</v>
       </c>
@@ -4780,7 +4777,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>332</v>
       </c>
@@ -4788,7 +4785,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>333</v>
       </c>
@@ -4796,7 +4793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>334</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>335</v>
       </c>
@@ -4820,7 +4817,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>336</v>
       </c>
@@ -4828,7 +4825,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>337</v>
       </c>
@@ -4836,7 +4833,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>338</v>
       </c>
@@ -4844,7 +4841,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>340</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>341</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>342</v>
       </c>
@@ -4876,7 +4873,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>343</v>
       </c>
@@ -4884,7 +4881,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>345</v>
       </c>
@@ -4900,7 +4897,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>346</v>
       </c>
@@ -4916,7 +4913,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>347</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>348</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>349</v>
       </c>
@@ -4940,7 +4937,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>350</v>
       </c>
@@ -4948,7 +4945,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>351</v>
       </c>
@@ -4964,7 +4961,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>352</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>353</v>
       </c>
@@ -4980,7 +4977,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>354</v>
       </c>
@@ -4996,7 +4993,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>355</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -5012,7 +5009,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>357</v>
       </c>
@@ -5020,7 +5017,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>358</v>
       </c>
@@ -5028,7 +5025,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>359</v>
       </c>
@@ -5036,7 +5033,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>360</v>
       </c>
@@ -5044,7 +5041,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -5052,7 +5049,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>362</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>363</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>364</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -5084,7 +5081,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>366</v>
       </c>
@@ -5092,7 +5089,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>367</v>
       </c>
@@ -5100,7 +5097,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>368</v>
       </c>
@@ -5108,7 +5105,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>369</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>370</v>
       </c>
@@ -5124,7 +5121,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +5137,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>310</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>372</v>
       </c>
@@ -5156,7 +5153,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>373</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>374</v>
       </c>
@@ -5172,7 +5169,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -5180,7 +5177,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>375</v>
       </c>
@@ -5188,7 +5185,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5193,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>376</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>377</v>
       </c>
@@ -5212,7 +5209,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>378</v>
       </c>
@@ -5220,7 +5217,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>379</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>380</v>
       </c>
@@ -5236,7 +5233,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>381</v>
       </c>
@@ -5244,7 +5241,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>382</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>383</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>384</v>
       </c>
@@ -5268,7 +5265,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>111</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>385</v>
       </c>
@@ -5284,7 +5281,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>386</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>387</v>
       </c>
@@ -5300,7 +5297,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -5308,7 +5305,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>389</v>
       </c>
@@ -5316,7 +5313,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>390</v>
       </c>
@@ -5324,7 +5321,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>217</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>391</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>392</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>393</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>394</v>
       </c>
@@ -5364,7 +5361,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -5372,7 +5369,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>395</v>
       </c>
@@ -5388,7 +5385,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>396</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>397</v>
       </c>
@@ -5404,7 +5401,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>398</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>399</v>
       </c>
@@ -5420,7 +5417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>400</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>401</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -5444,7 +5441,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>403</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>404</v>
       </c>
@@ -5460,7 +5457,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>405</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>406</v>
       </c>
@@ -5476,7 +5473,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>407</v>
       </c>
@@ -5484,7 +5481,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>408</v>
       </c>
@@ -5492,7 +5489,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>409</v>
       </c>
@@ -5500,7 +5497,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>410</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>411</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>412</v>
       </c>
@@ -5524,7 +5521,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>414</v>
       </c>
@@ -5540,7 +5537,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>415</v>
       </c>
@@ -5548,7 +5545,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>416</v>
       </c>
@@ -5556,7 +5553,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>417</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>418</v>
       </c>
@@ -5572,7 +5569,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>419</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>420</v>
       </c>
@@ -5588,7 +5585,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>421</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>422</v>
       </c>
@@ -5604,7 +5601,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>423</v>
       </c>
@@ -5612,7 +5609,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>424</v>
       </c>
@@ -5628,7 +5625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>425</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>426</v>
       </c>
@@ -5644,7 +5641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>427</v>
       </c>
@@ -5652,7 +5649,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>428</v>
       </c>
@@ -5660,7 +5657,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>429</v>
       </c>
@@ -5668,7 +5665,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>430</v>
       </c>
@@ -5676,7 +5673,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>431</v>
       </c>
@@ -5684,7 +5681,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>310</v>
       </c>
@@ -5692,7 +5689,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>432</v>
       </c>
@@ -5700,7 +5697,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>433</v>
       </c>
@@ -5708,7 +5705,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>434</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>435</v>
       </c>
@@ -5724,7 +5721,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>436</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>437</v>
       </c>
@@ -5740,7 +5737,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -5748,7 +5745,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>438</v>
       </c>
@@ -5756,7 +5753,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>439</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>440</v>
       </c>
@@ -5772,7 +5769,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -5780,7 +5777,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>442</v>
       </c>
@@ -5788,7 +5785,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>443</v>
       </c>
@@ -5796,7 +5793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>108</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>444</v>
       </c>
@@ -5812,7 +5809,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>445</v>
       </c>
@@ -5820,7 +5817,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>446</v>
       </c>
@@ -5828,7 +5825,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -5836,7 +5833,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>447</v>
       </c>
@@ -5844,7 +5841,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -5852,7 +5849,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>448</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>449</v>
       </c>
@@ -5868,7 +5865,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>450</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>451</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>452</v>
       </c>
@@ -5892,7 +5889,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>453</v>
       </c>
@@ -5900,7 +5897,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>454</v>
       </c>
@@ -5908,7 +5905,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>455</v>
       </c>
@@ -5916,7 +5913,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>456</v>
       </c>
@@ -5924,7 +5921,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>457</v>
       </c>
@@ -5934,5 +5931,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>